--- a/biology/Biochimie/Motif_de_reconnaissance_de_l'ARN/Motif_de_reconnaissance_de_l'ARN.xlsx
+++ b/biology/Biochimie/Motif_de_reconnaissance_de_l'ARN/Motif_de_reconnaissance_de_l'ARN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motif_de_reconnaissance_de_l%27ARN</t>
+          <t>Motif_de_reconnaissance_de_l'ARN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le motif de reconnaissance de l'ARN ou RRM (de RNA recognition motif en anglais )[1],[2],[3] est un domaine protéique d'environ 90 acides aminés de long et qui est présent dans de nombreuses protéines eucaryotes connues pour fixer de l'ARN simple-brin[4],[5],[6]. On le trouve en particulier dans plusieurs protéines participant aux petites ribonucléoprotéines nucléaires (snRNPp) du splicéosome et dans la Poly(A)-binding protein.
-Ces domaines contiennent un motif conservé de huit acides aminés appelé séquence consensus RNP-1[7],[8].
-Les domaines RRM typiques se composent de quatre feuillets bêta antiparallèles et de deux hélices alpha disposés dans un motif en β-α-β-β-α-β avec des chaînes latérales qui s'empilent sur les bases de l'ARN. Une troisième hélice se forme parfois lors de l'interaction avec l'ARN[9].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le motif de reconnaissance de l'ARN ou RRM (de RNA recognition motif en anglais ) est un domaine protéique d'environ 90 acides aminés de long et qui est présent dans de nombreuses protéines eucaryotes connues pour fixer de l'ARN simple-brin. On le trouve en particulier dans plusieurs protéines participant aux petites ribonucléoprotéines nucléaires (snRNPp) du splicéosome et dans la Poly(A)-binding protein.
+Ces domaines contiennent un motif conservé de huit acides aminés appelé séquence consensus RNP-1,.
+Les domaines RRM typiques se composent de quatre feuillets bêta antiparallèles et de deux hélices alpha disposés dans un motif en β-α-β-β-α-β avec des chaînes latérales qui s'empilent sur les bases de l'ARN. Une troisième hélice se forme parfois lors de l'interaction avec l'ARN.
 </t>
         </is>
       </c>
